--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Double\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0CF97-E9E1-4E59-BD72-1D57D0B11931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31510DB3-0A24-4743-A78F-4B9DBACCEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
   <si>
     <t>周</t>
   </si>
@@ -395,6 +395,81 @@
   </si>
   <si>
     <t>2. Fixed typo and updated the work details.</t>
+  </si>
+  <si>
+    <t>1. Added more events to the device and graphic panel, simulated how to load real data, send message and process the data.</t>
+  </si>
+  <si>
+    <t>1. Added new functions to load the dynamic element count for each graphic panel.</t>
+  </si>
+  <si>
+    <t>2. Updated the communication type of socket client for sending real message to T3000.</t>
+  </si>
+  <si>
+    <t>2025-01-06/07</t>
+  </si>
+  <si>
+    <t>2. Added new functions to load the dynamic element count for each graphic panel.</t>
+  </si>
+  <si>
+    <t>3. Updated the communication type of socket client for sending real message to T3000.</t>
+  </si>
+  <si>
+    <t>1. Updated socket server with following functions:</t>
+  </si>
+  <si>
+    <t># Add data model MessageModel to handle the message content &amp; Add relate events to send the message to T3000</t>
+  </si>
+  <si>
+    <t># Update rust socket server and add bind client function to store the client info</t>
+  </si>
+  <si>
+    <t># Update process message function to bind the client info</t>
+  </si>
+  <si>
+    <t>1. Updated socket server and webview with following changes:</t>
+  </si>
+  <si>
+    <t># Keep the orgin ui layout when open the webview from T3000</t>
+  </si>
+  <si>
+    <t># Update socket message type set BIND_DEVICE=13</t>
+  </si>
+  <si>
+    <t># Update rust server to block wrong format messages</t>
+  </si>
+  <si>
+    <t># Update device panel with real device data</t>
+  </si>
+  <si>
+    <t>1. Tried to fix error: Message payload is larger than the default config size =&gt;</t>
+  </si>
+  <si>
+    <t>Currently this results in an error like Capacity(MessageTooLong { size: 2319073409, max_size: 16777216 }) on the receiving end</t>
+  </si>
+  <si>
+    <t>Struct tungstenite::protocol::WebSocketConfig</t>
+  </si>
+  <si>
+    <t>https://docs.rs/tungstenite/0.21.0/tungstenite/protocol/struct.WebSocketConfig.html</t>
+  </si>
+  <si>
+    <t>2. Result returned in a incorrect format, should including action field and the error field with text content also.</t>
+  </si>
+  <si>
+    <t>3. Need to set the device connection type to wifi to get the panel list info. this is not working under USB model.</t>
+  </si>
+  <si>
+    <t>1. Updated the socket server and bind real device info to webview</t>
+  </si>
+  <si>
+    <t>2. Added functions monitor_clients_status &amp; check_clients_status for monitoring the server status</t>
+  </si>
+  <si>
+    <t>1. Updated graphic ui</t>
+  </si>
+  <si>
+    <t>2. Updated save logic for both external browser and built in browser</t>
   </si>
 </sst>
 </file>
@@ -462,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,15 +549,16 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,15 +839,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -955,101 +1031,107 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45649</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>45653</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45656</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>45657</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45659</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>45660</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45663</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45667</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1959,13 +2041,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367D133-EDA4-4AEB-BA43-774273F016B7}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1">
@@ -2012,6 +2097,171 @@
         <v>121</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31510DB3-0A24-4743-A78F-4B9DBACCEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C20143-7AD2-4D84-A878-2512CE5D0628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
   <si>
     <t>周</t>
   </si>
@@ -470,6 +470,78 @@
   </si>
   <si>
     <t>2. Updated save logic for both external browser and built in browser</t>
+  </si>
+  <si>
+    <t>1. Updated GET_ENTITY message type</t>
+  </si>
+  <si>
+    <t>2. Updated socket client and send GET_ENTITIES to T3</t>
+  </si>
+  <si>
+    <t>3. Updated daily work details</t>
+  </si>
+  <si>
+    <t>4. Added serial_number and set the graphic index start with 1</t>
+  </si>
+  <si>
+    <t>1. Updated index page and migrate code</t>
+  </si>
+  <si>
+    <t>2. Fixed bugs</t>
+  </si>
+  <si>
+    <t>3. Added new function ProcessWebSocketFrame</t>
+  </si>
+  <si>
+    <t>4. Added clearGetPanelsInterval</t>
+  </si>
+  <si>
+    <t>1. Refactored code of webview2 and split them into different files</t>
+  </si>
+  <si>
+    <t>2. Added webview2 message handler</t>
+  </si>
+  <si>
+    <t>3. Added functions to handle webview2 incoming message</t>
+  </si>
+  <si>
+    <t>1. Updated test page's libs references</t>
+  </si>
+  <si>
+    <t>2. Added property $q to store the quasar framework instance</t>
+  </si>
+  <si>
+    <t>3. Updated functions for counting graphic element count</t>
+  </si>
+  <si>
+    <t>1. Updated WebSocketClient and WebViewClient</t>
+  </si>
+  <si>
+    <t>2. Updated websocketclient-SaveLibraryData</t>
+  </si>
+  <si>
+    <t>3. Updated T3UpdateEntryField, reloadPanelsData, newProject</t>
+  </si>
+  <si>
+    <t>1. Updated device panel and add error section</t>
+  </si>
+  <si>
+    <t>2. Updated save function to automatically save every 30s</t>
+  </si>
+  <si>
+    <t>3. Updated the graphic selection logic, add presets function to avoid load incorrect initial data</t>
+  </si>
+  <si>
+    <t>1. Merged and optimized code for version release.</t>
+  </si>
+  <si>
+    <t>2. Fixed bug [Put the ‘Linked with’ section up top]. (already done)</t>
+  </si>
+  <si>
+    <t>3. Tried to fix bug [Did not remember the last position and size]. (50%)</t>
+  </si>
+  <si>
+    <t>4. About the wall part, I want to fix it along with the new UI. The libs has some parts that need to be updated, this part may not be done before the holiday.</t>
   </si>
 </sst>
 </file>
@@ -555,10 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,12 +914,12 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1089,16 +1161,34 @@
       <c r="C17" s="5">
         <v>45667</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45670</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45676</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
@@ -2041,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367D133-EDA4-4AEB-BA43-774273F016B7}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2262,6 +2352,161 @@
         <v>146</v>
       </c>
     </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C20143-7AD2-4D84-A878-2512CE5D0628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C42775-C845-428F-9FA9-C11AA344FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +628,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -911,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1176,52 +1177,116 @@
       <c r="C18" s="5">
         <v>45676</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45677</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
+        <v>45678</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
+        <v>45679</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
+        <v>45680</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45693</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="5">
+        <v>45694</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="5">
+        <v>45695</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="5">
+        <v>45696</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2131,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367D133-EDA4-4AEB-BA43-774273F016B7}">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A92"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2507,6 +2572,9 @@
         <v>170</v>
       </c>
     </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C42775-C845-428F-9FA9-C11AA344FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E892F-E511-431A-81E1-74F5AFD6F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,9 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1197,7 +1194,7 @@
         <v>45677</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="7"/>
@@ -1208,7 +1205,7 @@
         <v>45678</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="7"/>
@@ -1219,7 +1216,7 @@
         <v>45679</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
@@ -1230,7 +1227,7 @@
         <v>45680</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="7"/>
@@ -1287,6 +1284,70 @@
         <v>1</v>
       </c>
       <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45698</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5">
+        <v>45699</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5">
+        <v>45700</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5">
+        <v>45701</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5">
+        <v>45702</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2198,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367D133-EDA4-4AEB-BA43-774273F016B7}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>

--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E892F-E511-431A-81E1-74F5AFD6F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B986AE4-7227-4B5F-A46B-B3F56AEC5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,12 +574,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -609,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +635,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,10 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1222,15 +1239,15 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10">
         <v>45680</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
@@ -1345,9 +1362,201 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>18</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45705</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5">
+        <v>45706</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="5">
+        <v>45707</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5">
+        <v>45708</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="5">
+        <v>45709</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>19</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45712</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5">
+        <v>45713</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5">
+        <v>45714</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="5">
+        <v>45715</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5">
+        <v>45716</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45719</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5">
+        <v>45720</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5">
+        <v>45721</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5">
+        <v>45723</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/wt/Details.xlsx
+++ b/doc/wt/Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1025\github\temcocontrols\T3000Webview\doc\wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B986AE4-7227-4B5F-A46B-B3F56AEC5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2D1F8-5976-4DA3-997F-13C09F6926FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="2024-11" sheetId="4" r:id="rId3"/>
     <sheet name="2024-12" sheetId="5" r:id="rId4"/>
     <sheet name="2025-01" sheetId="6" r:id="rId5"/>
+    <sheet name="2025-02" sheetId="7" r:id="rId6"/>
+    <sheet name="2025-03" sheetId="8" r:id="rId7"/>
+    <sheet name="2025-04" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -588,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -611,11 +614,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,13 +661,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -658,6 +695,1913 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56609</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>86613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F94136-07A5-E5E5-8054-F87429691BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4323809" cy="8133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599314</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1F621D-EAF4-44FB-9734-39ECE21DE965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8645236"/>
+          <a:ext cx="6085714" cy="2627874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>193965</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>172443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAC0B93-DB7C-4FB3-AECC-8B28F75B97C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11707091"/>
+          <a:ext cx="6289964" cy="7196697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256609</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FDFB79-D34D-4088-860B-C80812F63B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="360218"/>
+          <a:ext cx="4523809" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>418667</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>125001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE1B9E6-659C-4218-914F-7BFF399C6C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="5043055"/>
+          <a:ext cx="3466667" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>456609</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>46033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1E9409-E963-4AF8-A55B-9A66CB093CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="10086109"/>
+          <a:ext cx="4723809" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161371</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>24207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152E7E01-67D0-4081-8D53-D1C4034B7A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="180109"/>
+          <a:ext cx="4428571" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561371</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FA6BC9-5511-4291-A538-AD88D3D9825C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="7924800"/>
+          <a:ext cx="4828571" cy="8209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599695</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>48215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3853856-EAE6-A166-2211-E736367AB03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="16570036"/>
+          <a:ext cx="3038095" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599695</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>103176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B06A07-AE8C-9F60-F9C1-F894F0923C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="19091564"/>
+          <a:ext cx="3038095" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>237714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470F5BD6-8E7B-67EA-C00D-8B57D80CAD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="180109"/>
+          <a:ext cx="3285714" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>437790</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A349A70B-61E2-5215-5640-936EE1518431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="4862945"/>
+          <a:ext cx="2876190" cy="4342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>504229</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>126935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53327E0E-CBD8-54E1-F870-35BB40538189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="9545782"/>
+          <a:ext cx="4771429" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437790</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA3C986-6108-A601-E5FE-19BCCEF9D20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2876190" cy="8466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151848</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>105661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D664E2A5-94FA-CAA8-7B4B-D2E354433326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8778240"/>
+          <a:ext cx="4419048" cy="8152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247238</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>130491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A6A089-6294-A91C-3C6B-5632DA1400CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17190720"/>
+          <a:ext cx="3295238" cy="7628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552076</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>1013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D215DED-6B10-0BE4-4AE4-ECD17366EA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="2990476" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323429</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>10423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F51C892-B47F-ED40-19C5-B64ADE92C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32369760"/>
+          <a:ext cx="3371429" cy="8057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380571</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>130606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5239E6-4981-1BBD-FFA5-4D52BA5F1F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40599360"/>
+          <a:ext cx="3428571" cy="6714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599695</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>67566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6209BE98-8521-B0C1-2811-0C188ABAFA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47548800"/>
+          <a:ext cx="3038095" cy="8114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475733</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>168587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6786341E-F139-FA9A-D852-61BAE2E4EB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="55961280"/>
+          <a:ext cx="4133333" cy="7666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513752</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>166659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BD3AA8-AB4F-CFE6-3FF9-A8FDE0440B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="64008000"/>
+          <a:ext cx="4780952" cy="7847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380571</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937F92EC-A3F3-85E3-E659-FB4361724FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="3428571" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275809</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>41036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8C18B-AA77-5475-B4D7-859D55942EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7498080"/>
+          <a:ext cx="3323809" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580648</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>96251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7265615-1A72-37EB-A36F-6BA474BA41B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14630400"/>
+          <a:ext cx="3019048" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9143</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>69950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316E635D-9B92-F70F-D405-D69F42CC20BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21945600"/>
+          <a:ext cx="3057143" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>22103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC2F241-F128-7FA7-FF73-14F52DDCFD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26517600"/>
+          <a:ext cx="3342857" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285333</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>4868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C5C873-8D84-A675-DCCA-87243664D721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32918400"/>
+          <a:ext cx="3333333" cy="6771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513981</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB578FE9-1F3F-EE60-CCBD-DC6E73E3E6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39867840"/>
+          <a:ext cx="2952381" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>494857</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>99992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3007F1-668A-DEA7-A67E-20675A59E44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44256960"/>
+          <a:ext cx="3542857" cy="7780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152000</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>27771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F280683-7E67-05DD-8146-D92C9279D900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52303680"/>
+          <a:ext cx="3200000" cy="6428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447162</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>12350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A45779F-D206-F2C9-EEC5-E95959B3579A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58887360"/>
+          <a:ext cx="4104762" cy="7876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390019</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C708AD2-8ADB-8894-8604-6A4116785E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="66934080"/>
+          <a:ext cx="4047619" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409067</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>94438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB35B50-E50B-0B48-4338-FF61E7CE0E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73152000"/>
+          <a:ext cx="4066667" cy="6495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504305</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>20175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F1322E-942A-E6E9-2CE3-553CC87118B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="79918560"/>
+          <a:ext cx="4161905" cy="6238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437714</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>29585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CC7E70-BE44-30D3-B92D-9563FA72B4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="86319360"/>
+          <a:ext cx="3485714" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304152</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>98293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232C26AC-B093-9E20-D990-3FB82974391E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="93817440"/>
+          <a:ext cx="5180952" cy="6133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437714</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>157364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABD19CC-B8A0-1E79-DD84-C594B7DCFB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="100218240"/>
+          <a:ext cx="3485714" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190019</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>144328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E087C296-E40A-4C96-4FCF-2B7A54D22C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="106619040"/>
+          <a:ext cx="3847619" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66209</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>149653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B15533-179E-B86A-7C45-C53CDC1C4296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="110459520"/>
+          <a:ext cx="3723809" cy="6733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561524</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>94438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B995186-47CD-8AB7-A23B-70D0362EB29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="117408960"/>
+          <a:ext cx="3609524" cy="6495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>332952</xdr:colOff>
+      <xdr:row>688</xdr:row>
+      <xdr:rowOff>58842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DF147E-BAB6-CD92-B3BF-A795F6996A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="124175520"/>
+          <a:ext cx="3380952" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>690</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56686</xdr:colOff>
+      <xdr:row>733</xdr:row>
+      <xdr:rowOff>107588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA3A542-B23E-6493-4E4B-F4F544DE412C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="126187200"/>
+          <a:ext cx="3714286" cy="7971428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,21 +2867,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D25:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1200,7 +3144,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
@@ -1217,7 +3161,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>45678</v>
       </c>
@@ -1228,7 +3172,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>45679</v>
       </c>
@@ -1239,18 +3183,18 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
         <v>45680</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
@@ -1265,23 +3209,23 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>45694</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>45695</v>
       </c>
@@ -1292,13 +3236,13 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>45696</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1314,9 +3258,11 @@
         <v>17</v>
       </c>
       <c r="B30" s="5">
+        <v>45697</v>
+      </c>
+      <c r="C30" s="5">
         <v>45698</v>
       </c>
-      <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>1</v>
       </c>
@@ -1340,7 +3286,7 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1367,10 +3313,10 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
@@ -1432,39 +3378,39 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5">
+        <v>45710</v>
+      </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6">
+        <v>0.4</v>
+      </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>19</v>
-      </c>
+      <c r="A42" s="6"/>
       <c r="B42" s="5">
-        <v>45712</v>
+        <v>45711</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
-      <c r="B43" s="5">
-        <v>45713</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>19</v>
+      </c>
       <c r="B44" s="5">
-        <v>45714</v>
+        <v>45712</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
@@ -1475,7 +3421,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="5">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6">
@@ -1486,7 +3432,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
-        <v>45716</v>
+        <v>45714</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
@@ -1496,17 +3442,19 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="5">
+        <v>45715</v>
+      </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="6">
-        <v>20</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="5">
-        <v>45719</v>
+        <v>45716</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
@@ -1516,19 +3464,17 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6"/>
-      <c r="B49" s="5">
-        <v>45720</v>
-      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6"/>
+      <c r="A50" s="6">
+        <v>20</v>
+      </c>
       <c r="B50" s="5">
-        <v>45721</v>
+        <v>45719</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6">
@@ -1539,7 +3485,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="6"/>
       <c r="B51" s="5">
-        <v>45722</v>
+        <v>45720</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
@@ -1550,13 +3496,2009 @@
     <row r="52" spans="1:5">
       <c r="A52" s="6"/>
       <c r="B52" s="5">
-        <v>45723</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>45721</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="6">
         <v>1</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5">
+        <v>45722</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5">
+        <v>45723</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6">
+        <v>21</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45726</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6"/>
+      <c r="B57" s="5">
+        <v>45727</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6"/>
+      <c r="B58" s="5">
+        <v>45728</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5">
+        <v>45730</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6">
+        <v>22</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="5">
+        <v>45734</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="5">
+        <v>45735</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="5">
+        <v>45736</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6">
+        <v>23</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45740</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6"/>
+      <c r="B69" s="5">
+        <v>45741</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6"/>
+      <c r="B70" s="5">
+        <v>45742</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6"/>
+      <c r="B71" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="13">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5">
+        <v>45744</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5">
+        <v>45747</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6">
+        <v>24</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45748</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5">
+        <v>45749</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5">
+        <v>45750</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5">
+        <v>45751</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6">
+        <v>25</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45754</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5">
+        <v>45755</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5">
+        <v>45756</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5">
+        <v>45757</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5">
+        <v>45758</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="6">
+        <v>26</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45761</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="6">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5">
+        <v>45762</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5">
+        <v>45763</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5">
+        <v>45764</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5">
+        <v>45765</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5">
+        <v>45766</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6">
+        <v>27</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45768</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6"/>
+      <c r="B94" s="5">
+        <v>45769</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5">
+        <v>45770</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5">
+        <v>45771</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5">
+        <v>45772</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="6">
+        <v>28</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45774</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5">
+        <v>45775</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="6"/>
+      <c r="B101" s="5">
+        <v>45776</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5">
+        <v>45777</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="5"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="5"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="5"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="5"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="5"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="5"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="5"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="5"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="5"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="5"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="5"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="5"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="5"/>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="5"/>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="5"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="5"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="5"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="5"/>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="5"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="5"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="5"/>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="5"/>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="5"/>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="5"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="5"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="5"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="5"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="5"/>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="5"/>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="5"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="5"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="5"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="5"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="5"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="5"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="5"/>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="5"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="5"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="5"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="5"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="5"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="5"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="5"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="5"/>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="5"/>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="5"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="5"/>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="5"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="5"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="5"/>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="5"/>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="5"/>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="5"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="5"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="5"/>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="5"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="5"/>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="5"/>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="5"/>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="5"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="5"/>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="5"/>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="5"/>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="5"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="5"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="5"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="5"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="5"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="5"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="5"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="5"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="5"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="5"/>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="5"/>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="5"/>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="5"/>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="5"/>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="5"/>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="5"/>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="5"/>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="5"/>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="5"/>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="5"/>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="5"/>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="5"/>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="5"/>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="5"/>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="5"/>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="5"/>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="5"/>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="5"/>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="5"/>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="5"/>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="5"/>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="5"/>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="5"/>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="5"/>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="5"/>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="5"/>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="5"/>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="5"/>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="5"/>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="5"/>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="5"/>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="5"/>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="5"/>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="5"/>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="5"/>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="5"/>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="5"/>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="5"/>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="5"/>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="5"/>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="5"/>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="5"/>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="5"/>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="5"/>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="5"/>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="5"/>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="5"/>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="5"/>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="5"/>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="5"/>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="5"/>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="5"/>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="5"/>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="5"/>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="5"/>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="5"/>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="5"/>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="5"/>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="5"/>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="5"/>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="5"/>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="5"/>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="5"/>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="5"/>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="5"/>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="5"/>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="5"/>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="5"/>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="5"/>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="5"/>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="5"/>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="5"/>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="5"/>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="5"/>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="5"/>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="5"/>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="5"/>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="5"/>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="5"/>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="5"/>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="5"/>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="5"/>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="5"/>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="5"/>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="5"/>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="5"/>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="5"/>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="5"/>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="5"/>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="5"/>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="5"/>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="5"/>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="5"/>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="5"/>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="5"/>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="5"/>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="5"/>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="5"/>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="5"/>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="5"/>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="5"/>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="5"/>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="5"/>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="5"/>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" s="5"/>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="5"/>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="5"/>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="5"/>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="5"/>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="5"/>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="5"/>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="5"/>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="5"/>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="5"/>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="5"/>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="5"/>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="5"/>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" s="5"/>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="5"/>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="5"/>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" s="5"/>
+    </row>
+    <row r="516" spans="2:2">
+      <c r="B516" s="5"/>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" s="5"/>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="5"/>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="5"/>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="5"/>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="5"/>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="5"/>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="5"/>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" s="5"/>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="5"/>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="5"/>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="5"/>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="5"/>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="5"/>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="5"/>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="5"/>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="5"/>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="5"/>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="5"/>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="5"/>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="5"/>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="5"/>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="5"/>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="5"/>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="5"/>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="5"/>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="5"/>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="5"/>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="5"/>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="5"/>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="5"/>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="5"/>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="5"/>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="5"/>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="5"/>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="5"/>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="5"/>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="5"/>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="5"/>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="5"/>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="5"/>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="5"/>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="5"/>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="5"/>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="5"/>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="5"/>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="5"/>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="5"/>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="5"/>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="5"/>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="5"/>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="5"/>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" s="5"/>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="5"/>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="5"/>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="5"/>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="5"/>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="5"/>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="5"/>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="5"/>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="5"/>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="5"/>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="5"/>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="5"/>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="5"/>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="5"/>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="5"/>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="5"/>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="5"/>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="5"/>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="5"/>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="5"/>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="5"/>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="5"/>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="5"/>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="5"/>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="5"/>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="5"/>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="5"/>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="5"/>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="5"/>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="5"/>
+    </row>
+    <row r="598" spans="2:2">
+      <c r="B598" s="5"/>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="5"/>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="5"/>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2848,4 +6790,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B5057E-F9B1-4EDE-8DA5-18F6D0386847}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C863F27-520E-4848-83F5-14EA8BE3E0F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8579E380-7EE3-4C18-8C10-6EBA8F588E86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="A691" sqref="A691"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>